--- a/WebRoot/static/template/import/supplier.xlsx
+++ b/WebRoot/static/template/import/supplier.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>供应商名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,9 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>供应商2</t>
-  </si>
-  <si>
     <t>供应商分类（50101）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,9 +81,6 @@
     <t>普通供应商</t>
   </si>
   <si>
-    <t>非普通供应商</t>
-  </si>
-  <si>
     <t>百会公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,46 +89,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>admin1</t>
+    <t>证件类型(40303)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海淀区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花园北路14号环星大厦D座二层</t>
+  </si>
+  <si>
+    <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>362356687@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>362356688@qq.com1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>证件类型(40303)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海淀区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花园北路14号环星大厦D座二层</t>
-  </si>
-  <si>
-    <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -576,19 +554,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="21.25" customWidth="1"/>
     <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="5" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.375" customWidth="1"/>
     <col min="8" max="8" width="12.5" customWidth="1"/>
     <col min="9" max="9" width="17.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
@@ -603,7 +580,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -624,7 +601,7 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
         <v>5</v>
@@ -650,103 +627,55 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2">
+        <v>789650124123</v>
+      </c>
+      <c r="F2">
+        <v>18200884689</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2">
+        <v>1369875544698</v>
+      </c>
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2">
-        <v>789654123</v>
-      </c>
-      <c r="F2">
-        <v>13698754698</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="J2">
+        <v>235454546987854</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
         <v>21</v>
       </c>
-      <c r="H2">
-        <v>13698754698</v>
-      </c>
-      <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2">
-        <v>23546987854</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" t="s">
-        <v>27</v>
-      </c>
       <c r="N2" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3">
-        <v>789654123</v>
-      </c>
-      <c r="F3">
-        <v>13698754697</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3">
-        <v>13698754698</v>
-      </c>
-      <c r="I3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3">
-        <v>23546987854</v>
-      </c>
-      <c r="K3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/WebRoot/static/template/import/supplier.xlsx
+++ b/WebRoot/static/template/import/supplier.xlsx
@@ -1,119 +1,99 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>供应商名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商分类（50101）</t>
+  </si>
+  <si>
+    <t>所有者</t>
   </si>
   <si>
     <t>法人代表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>手机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+  </si>
+  <si>
+    <t>传真</t>
+  </si>
+  <si>
+    <t>证件类型(40303)</t>
   </si>
   <si>
     <t>证件号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传真</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>省</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>县</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商分类（50101）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通供应商</t>
+  </si>
+  <si>
+    <t>刘岚</t>
+  </si>
+  <si>
+    <t>admin</t>
   </si>
   <si>
     <t>百会公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>证件类型(40303)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0817-5603365</t>
+  </si>
+  <si>
+    <t>362356687@qq.com</t>
   </si>
   <si>
     <t>北京市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>海淀区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>花园北路14号环星大厦D座二层</t>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>362356687@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行</t>
+  </si>
+  <si>
+    <t>居民身份证</t>
   </si>
 </sst>
 </file>
@@ -123,21 +103,14 @@
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -145,15 +118,21 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color indexed="12"/>
       <name val="宋体"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -176,21 +155,25 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -313,71 +296,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -510,8 +493,8 @@
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
+                <a:satMod val="350000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
@@ -547,7 +530,49 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="_h" fmla="val 21600"/>
+            <a:gd name="_w" fmla="val 21600"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600"/>
+          </a:pathLst>
+        </a:custGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr/>
+      <a:lstStyle/>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
@@ -556,23 +581,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="21.25" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="6" width="12.75" customWidth="1"/>
     <col min="7" max="7" width="31.375" customWidth="1"/>
     <col min="8" max="8" width="12.5" customWidth="1"/>
-    <col min="9" max="9" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.75" customWidth="1"/>
+    <col min="10" max="10" width="12.75" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
@@ -580,75 +605,75 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2">
-        <v>789650124123</v>
+      <c r="E2" t="s">
+        <v>18</v>
       </c>
       <c r="F2">
         <v>18200884689</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2">
-        <v>1369875544698</v>
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J2">
         <v>235454546987854</v>
@@ -670,12 +695,21 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
+      <formula1>"银行,企业"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12 I1:I1048576">
+      <formula1>"居民身份证,士官证,工作证,护照,其他"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
@@ -685,10 +719,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
@@ -698,9 +734,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>